--- a/2015-2016/clases/informatica_aplicada/examen/parcial/examen_inf_apl/claudia saens/examen.xlsx
+++ b/2015-2016/clases/informatica_aplicada/examen/parcial/examen_inf_apl/claudia saens/examen.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="23715" windowHeight="10035" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="20610" windowHeight="10035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -77,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;\ #,##0.00_);[Red]\(&quot;$&quot;\ #,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;\ #,##0.00_);[Red]\(&quot;$&quot;\ #,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -141,20 +141,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -461,7 +461,7 @@
   <dimension ref="A1:I73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -525,7 +525,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:F70" si="0">EDATE($A$4,E7)</f>
+        <f>EDATE($A$4,E7)</f>
         <v>39994</v>
       </c>
       <c r="I7" s="12"/>
@@ -535,7 +535,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
+        <f>EDATE($A$4,E8)</f>
         <v>40025</v>
       </c>
       <c r="I8" s="12"/>
@@ -546,7 +546,7 @@
         <v>3</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F7:F70" si="0">EDATE($A$4,E9)</f>
         <v>40056</v>
       </c>
       <c r="I9" s="12"/>
@@ -1216,7 +1216,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1303,7 @@
         <v>0.10503472222222222</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C6:C8" si="2">HOUR(B7)</f>
+        <f t="shared" ref="C7:C8" si="2">HOUR(B7)</f>
         <v>2</v>
       </c>
       <c r="D7">
@@ -1362,7 +1362,7 @@
   <dimension ref="A2:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
